--- a/Backend/DM_learner_plot.xlsx
+++ b/Backend/DM_learner_plot.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvesh\Desktop\Map\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65367DBB-9271-4691-A448-D1EB5CCAEB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>resource_name</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -31,41 +31,36 @@
     <t>description</t>
   </si>
   <si>
+    <t>Logical Equivalence</t>
+  </si>
+  <si>
     <t>Logical identities are fundamental principles in logic that express relationships between logical statements, remaining universally true regardless of the truth values assigned to their constituent parts. Tautologies represent statements that are inherently true, irrespective of the truth values of their components, such as the classic example (p ∨ ¬p). Contradictions, on the other hand, are statements that are invariably false, regardless of the truth values of their components, exemplified by (p ∧ ¬p). Contingencies occupy the space between, being neither always true nor always false, with their truth value dependent on the specific truth values of their components. De Morgan's laws encapsulate critical principles governing logical negations of conjunctions and disjunctions, enabling simplification and manipulation of logical expressions through equivalences like ¬(p ∧ q) ≡ (¬p ∨ ¬q) and ¬(p ∨ q) ≡ (¬p ∧ ¬q).</t>
   </si>
   <si>
+    <t>Induction</t>
+  </si>
+  <si>
     <t>Regular induction and strong induction are techniques used in mathematical proofs to establish the truth of statements for all natural numbers. Both methods rely on two key components: the base case and the inductive step. The base case involves demonstrating that the statement holds true for the smallest possible value of the variable, typically 0 or 1. The inductive step involves proving that if the statement holds true for some arbitrary natural number, it must also hold true for the next natural number. Strong induction goes a step further by assuming that the statement holds true for all values up to a certain point, rather than just the immediately preceding value as in regular induction. The fundamental theorem of arithmetic states that every integer greater than 1 can be uniquely factored into prime numbers, demonstrating the power of induction in establishing profound mathematical truths.</t>
   </si>
   <si>
+    <t>Equivalence Relations and Partitions</t>
+  </si>
+  <si>
     <t>A partition of a set involves dividing the set into non-empty subsets in such a way that every element belongs to exactly one subset, and every pair of subsets are disjoint. Equivalence classes, a concept closely related to partitions, emerge when elements within a set are grouped together based on an equivalence relation, where each class contains elements that are equivalent to each other under the given relation. The partition resulting from equivalence classes partitions the set into subsets that contain elements sharing the same equivalence relation, forming a systematic way to categorize elements based on their relationships with each other. This concept finds applications in various mathematical fields, particularly in algebra, topology, and computer science, providing a powerful tool for organizing and analyzing data structures and relationships.</t>
   </si>
   <si>
+    <t>Basic Rules of Counting</t>
+  </si>
+  <si>
     <t>In the realm of combinatorics and probability theory, several foundational principles govern the calculation and understanding of probabilities and combinatorial structures. The product rule and sum rule are two such principles: the product rule states that the probability of the intersection of independent events is the product of their individual probabilities, while the sum rule asserts that the probability of the union of mutually exclusive events is the sum of their individual probabilities. The Pigeonhole Principle, a simple yet powerful concept, states that if more pigeons are to be placed into fewer pigeonholes than the number of pigeons, at least one pigeonhole must contain multiple pigeons. Ramsey Numbers, a concept in graph theory, represent the minimum size of a complete graph in which a particular property, often related to colorings or substructures, is guaranteed to appear. These principles serve as cornerstones in various mathematical and probabilistic analyses, providing insights into probability distributions, combinatorial arrangements, and structural properties of graphs.</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Logical Equivalence</t>
-  </si>
-  <si>
-    <t>Induction</t>
-  </si>
-  <si>
-    <t>Equivalence Relations and Partitions</t>
-  </si>
-  <si>
-    <t>Basic Rules of Counting</t>
-  </si>
-  <si>
-    <t>resource_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,7 +71,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,40 +100,68 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -141,10 +172,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +213,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +301,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +357,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +383,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +415,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +428,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,101 +451,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.702789370560501</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.3515888285491375</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="6">
+        <v>0.502789370560501</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.451588828549138</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.629992773070484</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.58383204346779</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.729992773070484</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.78383204346779</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0.40278937056050079</v>
-      </c>
-      <c r="D2">
-        <v>0.35158882854913748</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.40278937056050079</v>
-      </c>
-      <c r="D3">
-        <v>0.35158882854913748</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.42999277307048378</v>
-      </c>
-      <c r="D4">
-        <v>0.38383204346778999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0.42999277307048378</v>
-      </c>
-      <c r="D5">
-        <v>0.38383204346778999</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>